--- a/data/outputs/OR/4.xlsx
+++ b/data/outputs/OR/4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ215"/>
+  <dimension ref="A1:BR215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1337,6 +1344,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1556,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4213962</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1755,6 +1768,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1976,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2181,6 +2196,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2396,6 +2412,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2615,6 +2632,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2818,6 +2836,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2900,7 +2919,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Khemakhem/0000-0001-5603-1947; </t>
+          <t>Khemakhem/0000-0001-5603-1947;</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr"/>
@@ -3021,6 +3040,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3224,6 +3244,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3427,6 +3448,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3638,6 +3660,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3845,6 +3868,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4056,6 +4080,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>13435993</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4263,6 +4292,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4267763</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4462,6 +4496,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4665,6 +4700,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4751,7 +4787,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Akkan, Can/0000-0002-1932-7826; </t>
+          <t>Akkan, Can/0000-0002-1932-7826;</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr"/>
@@ -4872,6 +4908,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5087,6 +5124,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5294,6 +5332,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5509,6 +5548,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5712,6 +5752,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5927,6 +5968,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4511906</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6130,6 +6176,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6345,6 +6392,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6556,6 +6604,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6771,6 +6820,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6970,6 +7020,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7173,6 +7224,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7384,6 +7436,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7595,6 +7648,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7810,6 +7864,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8009,6 +8064,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8224,6 +8280,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8439,6 +8496,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8654,6 +8712,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8865,6 +8924,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9080,6 +9140,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9295,6 +9356,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9502,6 +9564,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9717,6 +9780,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9932,6 +9996,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10139,6 +10204,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10346,6 +10412,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10557,6 +10624,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10768,6 +10836,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10971,6 +11040,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11178,6 +11248,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11385,6 +11456,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11600,6 +11672,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11811,6 +11884,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12026,6 +12100,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12225,6 +12300,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12436,6 +12512,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12647,6 +12724,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>4493642</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12854,6 +12936,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13061,6 +13144,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13264,6 +13348,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13463,6 +13548,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13662,6 +13748,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13861,6 +13948,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14060,6 +14148,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14267,6 +14356,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14478,6 +14568,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14693,6 +14784,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14908,6 +15000,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15115,6 +15208,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15334,6 +15428,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15549,6 +15644,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15760,6 +15856,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15967,6 +16064,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16166,6 +16264,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16365,6 +16464,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16564,6 +16664,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16779,6 +16880,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16982,6 +17084,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17189,6 +17292,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>5531986</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17400,6 +17508,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17607,6 +17716,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17822,6 +17932,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18033,6 +18144,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18244,6 +18356,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>2207426</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18455,6 +18572,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18670,6 +18788,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18885,6 +19004,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19096,6 +19216,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19311,6 +19432,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19402,7 +19524,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t> [TIN2012-37930];  [P08-TIC-4173]</t>
+          <t>[TIN2012-37930];  [P08-TIC-4173]</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
@@ -19526,6 +19648,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19733,6 +19856,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19948,6 +20072,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20163,6 +20288,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20362,6 +20488,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20561,6 +20688,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20760,6 +20888,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20975,6 +21104,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21190,6 +21320,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21401,6 +21532,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21600,6 +21732,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21795,6 +21928,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22010,6 +22144,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22213,6 +22348,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22416,6 +22552,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22619,6 +22756,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22822,6 +22960,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23021,6 +23160,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23236,6 +23376,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23451,6 +23592,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23650,6 +23792,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23865,6 +24008,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24072,6 +24216,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24287,6 +24432,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24502,6 +24648,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>4169437</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24709,6 +24860,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24924,6 +25076,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25143,6 +25296,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25350,6 +25504,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>3013883</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25565,6 +25724,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25780,6 +25940,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25995,6 +26156,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26082,7 +26244,7 @@
       </c>
       <c r="AB123" t="inlineStr">
         <is>
-          <t> [PIP-CONICET 241];  [PICT 2011-0817];  [UBACYT 20020100100666]</t>
+          <t>[PIP-CONICET 241];  [PICT 2011-0817];  [UBACYT 20020100100666]</t>
         </is>
       </c>
       <c r="AC123" t="inlineStr">
@@ -26210,6 +26372,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26425,6 +26588,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26632,6 +26796,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26831,6 +26996,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27046,6 +27212,11 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr">
+        <is>
+          <t>3963595</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27261,6 +27432,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27468,6 +27640,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>4512610</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27683,6 +27860,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27882,6 +28060,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28089,6 +28268,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>42854135</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28288,6 +28472,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28495,6 +28680,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28706,6 +28892,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28917,6 +29104,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29128,6 +29316,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29335,6 +29524,11 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>3031868</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29546,6 +29740,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29753,6 +29948,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29964,6 +30160,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30155,6 +30352,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30362,6 +30560,11 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>3877490</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30577,6 +30780,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30780,6 +30984,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30991,6 +31196,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31206,6 +31412,11 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr">
+        <is>
+          <t>3934380</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31417,6 +31628,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31632,6 +31844,11 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr">
+        <is>
+          <t>2875646</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31843,6 +32060,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32058,6 +32276,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32257,6 +32476,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32464,6 +32684,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32667,6 +32888,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32866,6 +33088,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33073,6 +33296,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33288,6 +33512,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33499,6 +33724,11 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr">
+        <is>
+          <t>2454297</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33710,6 +33940,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33917,6 +34148,11 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>4246703</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34124,6 +34360,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34339,6 +34576,11 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr">
+        <is>
+          <t>4513029</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34546,6 +34788,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34745,6 +34988,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34960,6 +35204,11 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr">
+        <is>
+          <t>8073541</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35175,6 +35424,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35390,6 +35640,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35597,6 +35848,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>25003492</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35800,6 +36056,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36007,6 +36264,11 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr">
+        <is>
+          <t>2729412</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36214,6 +36476,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36413,6 +36676,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36616,6 +36880,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36831,6 +37096,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37046,6 +37312,11 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr">
+        <is>
+          <t>4513031</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37245,6 +37516,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37444,6 +37716,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37659,6 +37932,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37878,6 +38152,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38081,6 +38356,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38167,7 +38443,7 @@
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>Govindan, Kannan/0000-0002-6204-1196; </t>
+          <t>Govindan, Kannan/0000-0002-6204-1196;</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr">
@@ -38296,6 +38572,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38507,6 +38784,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38714,6 +38992,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38929,6 +39208,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39144,6 +39424,11 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr">
+        <is>
+          <t>2948396</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39351,6 +39636,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39566,6 +39852,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39765,6 +40052,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39851,7 +40139,7 @@
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>yuan, biao/0000-0002-2424-0127; </t>
+          <t>yuan, biao/0000-0002-2424-0127;</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr">
@@ -39980,6 +40268,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40179,6 +40468,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40386,6 +40676,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40597,6 +40888,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40804,6 +41096,11 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr">
+        <is>
+          <t>4354853</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41007,6 +41304,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41222,6 +41520,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41429,6 +41728,7 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41628,6 +41928,11 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr">
+        <is>
+          <t>32351921</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41827,6 +42132,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -42026,6 +42332,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42225,6 +42532,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42404,6 +42712,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42490,7 +42799,7 @@
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>Wu, Naiqi/0000-0001-6782-458X; </t>
+          <t>Wu, Naiqi/0000-0001-6782-458X;</t>
         </is>
       </c>
       <c r="AB202" t="inlineStr"/>
@@ -42611,6 +42920,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -42822,6 +43132,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -43021,6 +43332,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43232,6 +43544,11 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr">
+        <is>
+          <t>2942652</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43435,6 +43752,11 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr">
+        <is>
+          <t>12086859</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43638,6 +43960,11 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr">
+        <is>
+          <t>2294184</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43853,6 +44180,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44068,6 +44396,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44283,6 +44612,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44494,6 +44824,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44693,6 +45024,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44904,6 +45236,7 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45119,6 +45452,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45314,6 +45648,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
